--- a/allTest_allDCOrg.xlsx
+++ b/allTest_allDCOrg.xlsx
@@ -2689,13 +2689,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>44474</v>
+        <v>44483</v>
       </c>
       <c r="D10" t="s">
         <v>65</v>
       </c>
       <c r="E10">
-        <v>44222</v>
+        <v>51307</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3175,13 +3175,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>44474</v>
+        <v>44483</v>
       </c>
       <c r="D10" t="s">
         <v>65</v>
       </c>
       <c r="E10">
-        <v>44222</v>
+        <v>51307</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>44222</v>
+        <v>51307</v>
       </c>
     </row>
     <row r="11" spans="1:10">

--- a/allTest_allDCOrg.xlsx
+++ b/allTest_allDCOrg.xlsx
@@ -7,12 +7,12 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="insCountMax prod_adaugeopi" sheetId="1" r:id="rId1"/>
-    <sheet name="insCountMaxC prod_adaugeopi" sheetId="2" r:id="rId2"/>
-    <sheet name="dup check prod_adaugeopi" sheetId="3" r:id="rId3"/>
-    <sheet name="acoXdupMonth prod_adaugeopi" sheetId="4" r:id="rId4"/>
-    <sheet name="odsCountMax prod_adaugeopi" sheetId="5" r:id="rId5"/>
-    <sheet name="odsCountMaxC prod_adaugeopi" sheetId="6" r:id="rId6"/>
+    <sheet name="insCountMax dev_adaugeopi" sheetId="1" r:id="rId1"/>
+    <sheet name="insCountMaxC dev_adaugeopi" sheetId="2" r:id="rId2"/>
+    <sheet name="dup check dev_adaugeopi" sheetId="3" r:id="rId3"/>
+    <sheet name="acoXdupMonth dev_adaugeopi" sheetId="4" r:id="rId4"/>
+    <sheet name="odsCountMax dev_adaugeopi" sheetId="5" r:id="rId5"/>
+    <sheet name="odsCountMaxC dev_adaugeopi" sheetId="6" r:id="rId6"/>
     <sheet name="insCountMax prod_ilumedpi" sheetId="7" r:id="rId7"/>
     <sheet name="insCountMaxC prod_ilumedpi" sheetId="8" r:id="rId8"/>
     <sheet name="dup check prod_ilumedpi" sheetId="9" r:id="rId9"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="69">
   <si>
     <t>tableName</t>
   </si>
@@ -78,7 +78,7 @@
     <t>patient_x_risk_score_month</t>
   </si>
   <si>
-    <t>PROD_ADAUGEOPI</t>
+    <t>DEV_ADAUGEOPI</t>
   </si>
   <si>
     <t>m-2021-09</t>
@@ -111,127 +111,127 @@
     <t>diff</t>
   </si>
   <si>
-    <t>PROD_ADAUGEOPI_FE</t>
+    <t>DEV_ADAUGEOPI_FE</t>
+  </si>
+  <si>
+    <t>rowsEffected</t>
+  </si>
+  <si>
+    <t>pkRowCount</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION_REASON_CD</t>
+  </si>
+  <si>
+    <t>ATTRIBUTION_SOURCE_CD</t>
+  </si>
+  <si>
+    <t>FK_ACO_ID</t>
+  </si>
+  <si>
+    <t>FK_PATIENT_ID</t>
+  </si>
+  <si>
+    <t>MONTH_CD</t>
+  </si>
+  <si>
+    <t>DUPMOCNT</t>
+  </si>
+  <si>
+    <t>cclf_0_summ_stat</t>
+  </si>
+  <si>
+    <t>cclf_1_pt_a_clm_hdr</t>
+  </si>
+  <si>
+    <t>cclf_2_pt_a_clm_rev_ctr_det</t>
+  </si>
+  <si>
+    <t>cclf_3_pt_a_proc_cd</t>
+  </si>
+  <si>
+    <t>cclf_4_pt_a_diag_cd</t>
+  </si>
+  <si>
+    <t>cclf_5_pt_b_phys</t>
+  </si>
+  <si>
+    <t>cclf_6_pt_b_dme</t>
+  </si>
+  <si>
+    <t>cclf_7_pt_d</t>
+  </si>
+  <si>
+    <t>cclf_8_bene_demo</t>
+  </si>
+  <si>
+    <t>cclf_assgn_0_header</t>
+  </si>
+  <si>
+    <t>cclf_assgn_1_hcc</t>
+  </si>
+  <si>
+    <t>cclf_assgn_1_summ</t>
+  </si>
+  <si>
+    <t>cclf_assgn_2_tin</t>
+  </si>
+  <si>
+    <t>cclf_assgn_3_ccn</t>
+  </si>
+  <si>
+    <t>cclf_assgn_4_tin_npi</t>
+  </si>
+  <si>
+    <t>cclf_assgn_5_turnover</t>
+  </si>
+  <si>
+    <t>cclf_assgn_6_assgnbl</t>
+  </si>
+  <si>
+    <t>cclf_a_pt_a_be_demo</t>
+  </si>
+  <si>
+    <t>cclf_benchmark_1_detail</t>
+  </si>
+  <si>
+    <t>cclf_b_pt_b_be_demo</t>
+  </si>
+  <si>
+    <t>cclf_expu_0_header</t>
+  </si>
+  <si>
+    <t>cclf_expu_1_detail</t>
+  </si>
+  <si>
+    <t>cclf_expu_2_regional</t>
+  </si>
+  <si>
+    <t>cclf_expu_2_snf</t>
+  </si>
+  <si>
+    <t>cclf_expu_3_snf</t>
+  </si>
+  <si>
+    <t>cclf_ng_align</t>
+  </si>
+  <si>
+    <t>nh_network_model_0_hdr</t>
+  </si>
+  <si>
+    <t>2021-09</t>
+  </si>
+  <si>
+    <t>2021-07</t>
+  </si>
+  <si>
+    <t>PROD_ILUMEDPI</t>
+  </si>
+  <si>
+    <t>PROD_ILUMEDPI_FE</t>
   </si>
   <si>
     <t>m-2021-07</t>
-  </si>
-  <si>
-    <t>rowsEffected</t>
-  </si>
-  <si>
-    <t>pkRowCount</t>
-  </si>
-  <si>
-    <t>ATTRIBUTION_REASON_CD</t>
-  </si>
-  <si>
-    <t>ATTRIBUTION_SOURCE_CD</t>
-  </si>
-  <si>
-    <t>FK_ACO_ID</t>
-  </si>
-  <si>
-    <t>FK_PATIENT_ID</t>
-  </si>
-  <si>
-    <t>MONTH_CD</t>
-  </si>
-  <si>
-    <t>DUPMOCNT</t>
-  </si>
-  <si>
-    <t>cclf_0_summ_stat</t>
-  </si>
-  <si>
-    <t>cclf_1_pt_a_clm_hdr</t>
-  </si>
-  <si>
-    <t>cclf_2_pt_a_clm_rev_ctr_det</t>
-  </si>
-  <si>
-    <t>cclf_3_pt_a_proc_cd</t>
-  </si>
-  <si>
-    <t>cclf_4_pt_a_diag_cd</t>
-  </si>
-  <si>
-    <t>cclf_5_pt_b_phys</t>
-  </si>
-  <si>
-    <t>cclf_6_pt_b_dme</t>
-  </si>
-  <si>
-    <t>cclf_7_pt_d</t>
-  </si>
-  <si>
-    <t>cclf_8_bene_demo</t>
-  </si>
-  <si>
-    <t>cclf_assgn_0_header</t>
-  </si>
-  <si>
-    <t>cclf_assgn_1_hcc</t>
-  </si>
-  <si>
-    <t>cclf_assgn_1_summ</t>
-  </si>
-  <si>
-    <t>cclf_assgn_2_tin</t>
-  </si>
-  <si>
-    <t>cclf_assgn_3_ccn</t>
-  </si>
-  <si>
-    <t>cclf_assgn_4_tin_npi</t>
-  </si>
-  <si>
-    <t>cclf_assgn_5_turnover</t>
-  </si>
-  <si>
-    <t>cclf_assgn_6_assgnbl</t>
-  </si>
-  <si>
-    <t>cclf_a_pt_a_be_demo</t>
-  </si>
-  <si>
-    <t>cclf_benchmark_1_detail</t>
-  </si>
-  <si>
-    <t>cclf_b_pt_b_be_demo</t>
-  </si>
-  <si>
-    <t>cclf_expu_0_header</t>
-  </si>
-  <si>
-    <t>cclf_expu_1_detail</t>
-  </si>
-  <si>
-    <t>cclf_expu_2_regional</t>
-  </si>
-  <si>
-    <t>cclf_expu_2_snf</t>
-  </si>
-  <si>
-    <t>cclf_expu_3_snf</t>
-  </si>
-  <si>
-    <t>cclf_ng_align</t>
-  </si>
-  <si>
-    <t>nh_network_model_0_hdr</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>PROD_ILUMEDPI</t>
-  </si>
-  <si>
-    <t>PROD_ILUMEDPI_FE</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -641,7 +641,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -658,7 +658,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -675,13 +675,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5">
-        <v>7522</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -692,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -709,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -726,7 +726,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -754,13 +754,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10">
-        <v>814498</v>
+        <v>592217</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -771,13 +771,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11">
-        <v>319052</v>
+        <v>318980</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -788,13 +788,13 @@
         <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12">
-        <v>1980857</v>
+        <v>1977912</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -805,13 +805,13 @@
         <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13">
-        <v>448008</v>
+        <v>335708</v>
       </c>
     </row>
   </sheetData>
@@ -829,22 +829,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -879,16 +879,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>44474</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>66</v>
@@ -896,16 +896,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
         <v>44474</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>64899</v>
@@ -913,16 +913,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>44474</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>706197</v>
@@ -930,16 +930,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2">
         <v>44474</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>5726</v>
@@ -947,16 +947,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2">
         <v>44474</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>406200</v>
@@ -964,16 +964,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2">
         <v>44474</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>741137</v>
@@ -981,16 +981,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2">
         <v>44474</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>42078</v>
@@ -998,16 +998,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2">
         <v>44474</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>369389</v>
@@ -1015,16 +1015,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2">
         <v>44474</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>20997</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1109,10 +1109,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1120,16 +1120,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2">
         <v>44474</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>64899</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2">
         <v>44474</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>741137</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1187,10 +1187,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1198,10 +1198,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1287,22 +1287,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>44474</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1313,22 +1313,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
         <v>44474</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>64899</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1339,22 +1339,22 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>44474</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>706197</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1365,22 +1365,22 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2">
         <v>44474</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>5726</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1391,22 +1391,22 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2">
         <v>44474</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>406200</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1417,22 +1417,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2">
         <v>44474</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>741137</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1443,22 +1443,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2">
         <v>44474</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>42078</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1469,22 +1469,22 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2">
         <v>44474</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>369389</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1495,22 +1495,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2">
         <v>44474</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>20997</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1521,16 +1521,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>67</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1541,16 +1541,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
         <v>67</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1561,16 +1561,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
         <v>67</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1581,16 +1581,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>67</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1601,16 +1601,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
         <v>67</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1621,16 +1621,16 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>67</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1641,16 +1641,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>67</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>67</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1681,22 +1681,22 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2">
         <v>44474</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>64899</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1707,16 +1707,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
         <v>67</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1727,22 +1727,22 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2">
         <v>44474</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>741137</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1753,16 +1753,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
         <v>67</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1773,16 +1773,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
         <v>67</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1793,16 +1793,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
         <v>67</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1813,16 +1813,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
         <v>67</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
         <v>67</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>68</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1853,16 +1853,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>67</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1873,16 +1873,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
         <v>67</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -1955,17 +1955,11 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2">
-        <v>44463</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
       <c r="I2">
-        <v>4252</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>102</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1976,7 +1970,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1987,17 +1981,11 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2">
-        <v>44463</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
       <c r="I3">
-        <v>7617</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>218</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2008,7 +1996,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -2019,17 +2007,11 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2">
-        <v>44463</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
       <c r="I4">
-        <v>21972</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>706</v>
+        <v>22678</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2040,28 +2022,22 @@
         <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5">
-        <v>7522</v>
+        <v>7458</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="2">
-        <v>44463</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
       <c r="I5">
-        <v>7457</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>65</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2072,7 +2048,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -2083,17 +2059,11 @@
       <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2">
-        <v>44463</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
       <c r="I6">
-        <v>1809490</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>104577</v>
+        <v>1914067</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2104,7 +2074,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -2115,17 +2085,11 @@
       <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2">
-        <v>44463</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
       <c r="I7">
-        <v>918312</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>51156</v>
+        <v>969468</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2136,7 +2100,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -2147,17 +2111,11 @@
       <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="2">
-        <v>44463</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
       <c r="I8">
-        <v>4985</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>453</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2188,28 +2146,22 @@
         <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10">
-        <v>814498</v>
+        <v>592217</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2">
-        <v>44463</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
       <c r="I10">
-        <v>572870</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>241628</v>
+        <v>592217</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2220,28 +2172,22 @@
         <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11">
-        <v>319052</v>
+        <v>318980</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="2">
-        <v>44463</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
       <c r="I11">
-        <v>304061</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>14991</v>
+        <v>318980</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2252,28 +2198,22 @@
         <v>17</v>
       </c>
       <c r="C12" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12">
-        <v>1980857</v>
+        <v>1977912</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="2">
-        <v>44463</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
-      </c>
       <c r="I12">
-        <v>1927584</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>53273</v>
+        <v>1977912</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2284,28 +2224,22 @@
         <v>17</v>
       </c>
       <c r="C13" s="2">
-        <v>44480</v>
+        <v>44483</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13">
-        <v>448008</v>
+        <v>335708</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="2">
-        <v>44463</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
       <c r="I13">
-        <v>314538</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>133470</v>
+        <v>335708</v>
       </c>
     </row>
   </sheetData>
@@ -2329,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2375,11 +2309,8 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>128</v>
-      </c>
       <c r="D5">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2433,11 +2364,8 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
-        <v>386861</v>
-      </c>
       <c r="D10">
-        <v>164592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2447,11 +2375,8 @@
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
-        <v>128</v>
-      </c>
       <c r="D11">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2461,11 +2386,8 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12">
-        <v>5746</v>
-      </c>
       <c r="D12">
-        <v>2812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2475,11 +2397,8 @@
       <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
-        <v>197943</v>
-      </c>
       <c r="D13">
-        <v>85710</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2497,22 +2416,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2466,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2556,7 +2475,7 @@
         <v>44474</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>66</v>
@@ -2564,7 +2483,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2573,7 +2492,7 @@
         <v>44474</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>92402</v>
@@ -2581,7 +2500,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -2590,7 +2509,7 @@
         <v>44474</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>593786</v>
@@ -2598,7 +2517,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -2607,7 +2526,7 @@
         <v>44474</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>7745</v>
@@ -2615,7 +2534,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -2624,7 +2543,7 @@
         <v>44474</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>395994</v>
@@ -2632,7 +2551,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2641,7 +2560,7 @@
         <v>44474</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>1167223</v>
@@ -2649,7 +2568,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -2658,7 +2577,7 @@
         <v>44474</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>74199</v>
@@ -2666,7 +2585,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -2675,7 +2594,7 @@
         <v>44474</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>514723</v>
@@ -2683,7 +2602,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -2692,7 +2611,7 @@
         <v>44483</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>51307</v>
@@ -2700,7 +2619,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -2711,7 +2630,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -2722,7 +2641,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -2733,7 +2652,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -2744,7 +2663,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2755,7 +2674,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -2766,7 +2685,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -2777,7 +2696,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -2788,7 +2707,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -2797,7 +2716,7 @@
         <v>44474</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>92402</v>
@@ -2805,7 +2724,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -2816,7 +2735,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -2825,7 +2744,7 @@
         <v>44474</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>1167223</v>
@@ -2833,7 +2752,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -2844,7 +2763,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -2855,7 +2774,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -2866,7 +2785,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -2877,7 +2796,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -2888,7 +2807,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -2899,7 +2818,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -2908,7 +2827,7 @@
         <v>44403</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2961,7 +2880,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2970,7 +2889,7 @@
         <v>44474</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>66</v>
@@ -2987,7 +2906,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2996,7 +2915,7 @@
         <v>44474</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>92402</v>
@@ -3013,7 +2932,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -3022,7 +2941,7 @@
         <v>44474</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>593786</v>
@@ -3039,7 +2958,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -3048,7 +2967,7 @@
         <v>44474</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>7745</v>
@@ -3065,7 +2984,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -3074,7 +2993,7 @@
         <v>44474</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>395994</v>
@@ -3091,7 +3010,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -3100,7 +3019,7 @@
         <v>44474</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>1167223</v>
@@ -3117,7 +3036,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -3126,7 +3045,7 @@
         <v>44474</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>74199</v>
@@ -3143,7 +3062,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -3152,7 +3071,7 @@
         <v>44474</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>514723</v>
@@ -3169,7 +3088,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -3178,7 +3097,7 @@
         <v>44483</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>51307</v>
@@ -3195,7 +3114,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -3215,7 +3134,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -3235,7 +3154,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -3255,7 +3174,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -3275,7 +3194,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -3295,7 +3214,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -3315,7 +3234,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -3335,7 +3254,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -3355,7 +3274,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -3364,7 +3283,7 @@
         <v>44474</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>92402</v>
@@ -3381,7 +3300,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -3401,7 +3320,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -3410,7 +3329,7 @@
         <v>44474</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>1167223</v>
@@ -3427,7 +3346,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -3447,7 +3366,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -3467,7 +3386,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -3487,7 +3406,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
@@ -3507,7 +3426,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -3527,7 +3446,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -3547,7 +3466,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -3556,7 +3475,7 @@
         <v>44403</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3606,7 +3525,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>44480</v>
@@ -3623,7 +3542,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
         <v>44480</v>
@@ -3640,7 +3559,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>44480</v>
@@ -3657,7 +3576,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2">
         <v>44480</v>
@@ -3674,7 +3593,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2">
         <v>44480</v>
@@ -3691,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2">
         <v>44480</v>
@@ -3708,7 +3627,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2">
         <v>44480</v>
@@ -3725,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3736,7 +3655,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2">
         <v>44480</v>
@@ -3753,7 +3672,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2">
         <v>44480</v>
@@ -3770,7 +3689,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2">
         <v>44480</v>
@@ -3787,7 +3706,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2">
         <v>44480</v>
@@ -3849,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>44480</v>
@@ -3861,13 +3780,13 @@
         <v>6565</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>44463</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I2">
         <v>5970</v>
@@ -3881,7 +3800,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
         <v>44480</v>
@@ -3893,13 +3812,13 @@
         <v>10884</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>44463</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I3">
         <v>9864</v>
@@ -3913,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>44480</v>
@@ -3925,13 +3844,13 @@
         <v>26581</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
         <v>44463</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I4">
         <v>23946</v>
@@ -3945,7 +3864,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2">
         <v>44480</v>
@@ -3957,13 +3876,13 @@
         <v>3415</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>44463</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I5">
         <v>3232</v>
@@ -3977,7 +3896,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2">
         <v>44480</v>
@@ -3989,13 +3908,13 @@
         <v>1444341</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>44463</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I6">
         <v>1280043</v>
@@ -4009,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2">
         <v>44480</v>
@@ -4021,13 +3940,13 @@
         <v>524485</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2">
         <v>44463</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I7">
         <v>470205</v>
@@ -4041,7 +3960,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2">
         <v>44480</v>
@@ -4053,13 +3972,13 @@
         <v>9688</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>44463</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <v>8692</v>
@@ -4073,13 +3992,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>67</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4093,7 +4012,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2">
         <v>44480</v>
@@ -4105,13 +4024,13 @@
         <v>365602</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2">
         <v>44463</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I10">
         <v>246228</v>
@@ -4125,7 +4044,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2">
         <v>44480</v>
@@ -4137,13 +4056,13 @@
         <v>145979</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2">
         <v>44463</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I11">
         <v>132317</v>
@@ -4157,7 +4076,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2">
         <v>44480</v>
@@ -4169,13 +4088,13 @@
         <v>1148050</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2">
         <v>44463</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I12">
         <v>1065531</v>
@@ -4189,7 +4108,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2">
         <v>44480</v>
@@ -4201,13 +4120,13 @@
         <v>204453</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2">
         <v>44463</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I13">
         <v>136920</v>
@@ -4237,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4248,7 +4167,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4259,7 +4178,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4270,7 +4189,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4281,7 +4200,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4292,7 +4211,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4303,7 +4222,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4314,7 +4233,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4325,7 +4244,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4336,7 +4255,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>194525</v>
@@ -4350,7 +4269,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4361,7 +4280,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4372,7 +4291,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>104250</v>
